--- a/config/project/board_120KW_auto/BoardConfig.xlsx
+++ b/config/project/board_120KW_auto/BoardConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board_120KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board_120KW_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{38661960-2EFF-4A56-B34E-94A1D23C2450}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10350" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10350" tabRatio="667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="256">
   <si>
     <t>组序号</t>
   </si>
@@ -191,99 +192,51 @@
     <t>DIN01</t>
   </si>
   <si>
-    <t>DIN01 = 0</t>
-  </si>
-  <si>
     <t>DIN02</t>
   </si>
   <si>
-    <t>DIN02 = 0</t>
-  </si>
-  <si>
     <t>DIN03</t>
   </si>
   <si>
-    <t>DIN03 = 0</t>
-  </si>
-  <si>
     <t>DIN04</t>
   </si>
   <si>
-    <t>DIN04 = 0</t>
-  </si>
-  <si>
     <t>DIN05</t>
   </si>
   <si>
-    <t>DIN05 = 0</t>
-  </si>
-  <si>
     <t>DIN06</t>
   </si>
   <si>
-    <t>DIN06 = 0</t>
-  </si>
-  <si>
     <t>DIN07</t>
   </si>
   <si>
-    <t>DIN07 = 0</t>
-  </si>
-  <si>
     <t>DIN08</t>
   </si>
   <si>
-    <t>DIN08 = 0</t>
-  </si>
-  <si>
     <t>DIN09</t>
   </si>
   <si>
-    <t>DIN09 = 0</t>
-  </si>
-  <si>
     <t>DIN10</t>
   </si>
   <si>
-    <t>DIN10 = 0</t>
-  </si>
-  <si>
     <t>DIN11</t>
   </si>
   <si>
-    <t>DIN11 = 0</t>
-  </si>
-  <si>
     <t>DIN12</t>
   </si>
   <si>
-    <t>DIN12 = 0</t>
-  </si>
-  <si>
     <t>DIN13</t>
   </si>
   <si>
-    <t>DIN13 = 0</t>
-  </si>
-  <si>
     <t>DIN14</t>
   </si>
   <si>
-    <t>DIN14 = 0</t>
-  </si>
-  <si>
     <t>DIN15</t>
   </si>
   <si>
-    <t>DIN15 = 0</t>
-  </si>
-  <si>
     <t>DIN16</t>
   </si>
   <si>
-    <t>DIN16 = 0</t>
-  </si>
-  <si>
     <t>di_全合</t>
   </si>
   <si>
@@ -739,9 +692,6 @@
   </si>
   <si>
     <t>IO_DI4</t>
-  </si>
-  <si>
-    <t>IO_DI4 = 1</t>
   </si>
   <si>
     <t>IO_DI5</t>
@@ -1215,14 +1165,430 @@
   </si>
   <si>
     <t>LT18-8113DDB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组测试前继电器操作掩码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组测试后继电器操作掩码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上电</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断电</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>0x0000FFFF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>di_2_4_6_8_10_12_14</t>
+  </si>
+  <si>
+    <t>di_2_4_6_8_10_12_14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>di_1_3_5_7_9_11_13_15_16</t>
+  </si>
+  <si>
+    <t>di_1_3_5_7_9_11_13_15_16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN01 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN03 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN05 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN07 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN09 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN11 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN13 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN15 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN16 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN02 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN04 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN06 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN08 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN10 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN12 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DIN14 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000149</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>di_1_3_5_7_9_11_13_15_16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI4 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN01 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN02 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN03 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN04 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN05 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN06 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN07 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN08 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN09 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN10 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN11 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN12 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN13 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN14 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN15 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIN16 = 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁测试</t>
+  </si>
+  <si>
+    <t>解锁测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IODI防接反(打开防接反)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000001D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD采样(ADC开关17-18打开)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1250,6 +1616,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1334,7 +1713,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1401,6 +1780,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1416,28 +1831,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1709,11 +2115,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1815,11 +2221,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="11">
@@ -1836,9 +2242,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="11">
         <v>5</v>
       </c>
@@ -1853,9 +2259,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="11">
         <v>6</v>
       </c>
@@ -1891,11 +2297,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="11">
@@ -1908,270 +2314,270 @@
         <v>9</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="11">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="11">
-        <v>9</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="11">
         <v>10</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="11">
         <v>11</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="11">
         <v>12</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="11">
         <v>13</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="11">
         <v>14</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="11">
         <v>15</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="11">
         <v>16</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="11">
         <v>17</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="11">
         <v>18</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>47</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="11">
         <v>19</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="11">
         <v>20</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="11">
         <v>21</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="11">
         <v>22</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="11">
         <v>23</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>57</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="23" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="11">
@@ -2183,278 +2589,278 @@
       <c r="F25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>59</v>
+      <c r="G25" s="26" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="11">
         <v>25</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="11">
         <v>26</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>61</v>
+      <c r="G27" s="26" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="11">
         <v>27</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="11">
         <v>28</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>63</v>
+      <c r="G29" s="26" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="11">
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="11">
         <v>30</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>65</v>
+      <c r="G31" s="26" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="11">
         <v>31</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="11">
         <v>32</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>67</v>
+      <c r="G33" s="26" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="11">
         <v>33</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="11">
         <v>34</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>69</v>
+      <c r="G35" s="26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="11">
         <v>35</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="11">
         <v>36</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>71</v>
+      <c r="G37" s="26" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="11">
         <v>37</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="11">
         <v>38</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>73</v>
+      <c r="G39" s="26" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="11">
         <v>39</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>74</v>
+      <c r="G40" s="26" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>76</v>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="D41" s="11">
         <v>40</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>9</v>
@@ -2464,14 +2870,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="11">
         <v>41</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>9</v>
@@ -2481,14 +2887,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="11">
         <v>42</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>9</v>
@@ -2498,14 +2904,14 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="11">
         <v>43</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>9</v>
@@ -2515,14 +2921,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="11">
         <v>44</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>9</v>
@@ -2532,14 +2938,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="11">
         <v>45</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>9</v>
@@ -2549,14 +2955,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="11">
         <v>46</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>9</v>
@@ -2566,14 +2972,14 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="11">
         <v>47</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>9</v>
@@ -2583,14 +2989,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="11">
         <v>48</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>9</v>
@@ -2600,14 +3006,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="11">
         <v>49</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>9</v>
@@ -2617,14 +3023,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="11">
         <v>50</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>9</v>
@@ -2634,14 +3040,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="11">
         <v>51</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>9</v>
@@ -2651,14 +3057,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="11">
         <v>52</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>9</v>
@@ -2668,14 +3074,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="11">
         <v>53</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>9</v>
@@ -2685,14 +3091,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="11">
         <v>54</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>9</v>
@@ -2702,14 +3108,14 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="11">
         <v>55</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>9</v>
@@ -2719,18 +3125,18 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>76</v>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="D57" s="11">
         <v>56</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>9</v>
@@ -2740,14 +3146,14 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="11">
         <v>57</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>9</v>
@@ -2757,14 +3163,14 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="11">
         <v>58</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>9</v>
@@ -2774,14 +3180,14 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="11">
         <v>59</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>9</v>
@@ -2791,14 +3197,14 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="11">
         <v>60</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>9</v>
@@ -2808,14 +3214,14 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="11">
         <v>61</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>9</v>
@@ -2825,14 +3231,14 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="11">
         <v>62</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>9</v>
@@ -2842,14 +3248,14 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="11">
         <v>63</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>9</v>
@@ -2859,14 +3265,14 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="11">
         <v>64</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>9</v>
@@ -2876,14 +3282,14 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="11">
         <v>65</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>9</v>
@@ -2893,14 +3299,14 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="11">
         <v>66</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>9</v>
@@ -2910,14 +3316,14 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="11">
         <v>67</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>9</v>
@@ -2927,14 +3333,14 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="11">
         <v>68</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>9</v>
@@ -2944,14 +3350,14 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="11">
         <v>69</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>9</v>
@@ -2961,14 +3367,14 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="11">
         <v>70</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>9</v>
@@ -2978,14 +3384,14 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="11">
         <v>71</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>9</v>
@@ -2995,90 +3401,90 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>95</v>
+      <c r="A73" s="31"/>
+      <c r="B73" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="D73" s="11">
         <v>72</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G73" s="15">
-        <v>0</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="11">
         <v>73</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="15">
-        <v>0</v>
+      <c r="G74" s="23">
+        <v>1.65</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="11">
         <v>74</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="15">
-        <v>0</v>
+      <c r="G75" s="23">
+        <v>1.65</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="11">
         <v>75</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="15">
-        <v>0</v>
+      <c r="G76" s="23">
+        <v>1.65</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>95</v>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="D77" s="11">
         <v>76</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>9</v>
@@ -3088,14 +3494,14 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="11">
         <v>77</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>9</v>
@@ -3105,14 +3511,14 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="11">
         <v>78</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>9</v>
@@ -3122,14 +3528,14 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="11">
         <v>79</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>9</v>
@@ -3139,18 +3545,18 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>102</v>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="D81" s="11">
         <v>80</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>9</v>
@@ -3160,14 +3566,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="11">
         <v>81</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>9</v>
@@ -3177,14 +3583,14 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="11">
         <v>82</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>9</v>
@@ -3194,14 +3600,14 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="11">
         <v>83</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>9</v>
@@ -3211,14 +3617,14 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="11">
         <v>84</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>9</v>
@@ -3228,14 +3634,14 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="11">
         <v>85</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>9</v>
@@ -3245,14 +3651,14 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="11">
         <v>86</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>9</v>
@@ -3262,14 +3668,14 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
       <c r="D88" s="11">
         <v>87</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>9</v>
@@ -3279,52 +3685,52 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>102</v>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="D89" s="11">
         <v>88</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G89" s="15">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="11">
         <v>89</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G90" s="15">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="11">
         <v>90</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>9</v>
@@ -3334,14 +3740,14 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="11">
         <v>91</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>9</v>
@@ -3351,14 +3757,14 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="11">
         <v>92</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>9</v>
@@ -3368,14 +3774,14 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="11">
         <v>93</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>9</v>
@@ -3385,14 +3791,14 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="11">
         <v>94</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>9</v>
@@ -3402,14 +3808,14 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="11">
         <v>95</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>9</v>
@@ -3419,85 +3825,85 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" s="23" t="s">
+      <c r="A97" s="31"/>
+      <c r="B97" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="11">
         <v>96</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F97" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="11">
         <v>97</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="23" t="s">
+      <c r="A99" s="31"/>
+      <c r="B99" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="11">
         <v>98</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="11">
         <v>99</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="14" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>8</v>
@@ -3506,40 +3912,40 @@
         <v>100</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="15" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D102" s="11">
         <v>101</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="14" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>8</v>
@@ -3548,19 +3954,19 @@
         <v>102</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="12" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>8</v>
@@ -3569,13 +3975,13 @@
         <v>103</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3584,7 +3990,7 @@
         <v>10</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D105" s="11">
         <v>104</v>
@@ -3605,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D106" s="11">
         <v>105</v>
@@ -3623,16 +4029,16 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="14" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D107" s="11">
         <v>106</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F107" s="13" t="s">
         <v>9</v>
@@ -3642,56 +4048,56 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>127</v>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="D108" s="11">
         <v>107</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="28"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
       <c r="D109" s="11">
         <v>108</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C110" s="22">
+      <c r="A110" s="30"/>
+      <c r="B110" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="30">
         <v>485</v>
       </c>
       <c r="D110" s="11">
         <v>109</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>9</v>
@@ -3701,14 +4107,14 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="22"/>
+      <c r="A111" s="30"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="30"/>
       <c r="D111" s="11">
         <v>110</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>9</v>
@@ -3720,37 +4126,37 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D112" s="11">
         <v>111</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="12" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D113" s="11">
         <v>112</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F113" s="13" t="s">
         <v>9</v>
@@ -3762,16 +4168,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="12" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D114" s="11">
         <v>113</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F114" s="13" t="s">
         <v>9</v>
@@ -3783,16 +4189,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="12" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D115" s="11">
         <v>114</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>9</v>
@@ -3804,7 +4210,7 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>8</v>
@@ -3813,7 +4219,7 @@
         <v>115</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F116" s="13" t="s">
         <v>9</v>
@@ -3825,16 +4231,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="12" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D117" s="11">
         <v>116</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>9</v>
@@ -3846,7 +4252,7 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="13" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>8</v>
@@ -3855,7 +4261,7 @@
         <v>117</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>9</v>
@@ -3865,18 +4271,18 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
-      <c r="B119" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>123</v>
+      <c r="A119" s="39"/>
+      <c r="B119" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="D119" s="11">
         <v>118</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>9</v>
@@ -3886,14 +4292,14 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="28"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="22"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="30"/>
       <c r="D120" s="11">
         <v>119</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F120" s="13" t="s">
         <v>9</v>
@@ -3905,58 +4311,58 @@
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="15" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D121" s="18">
         <v>120</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="12" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D122" s="11">
         <v>121</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>139</v>
+      <c r="A123" s="33"/>
+      <c r="B123" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="D123" s="11">
         <v>122</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F123" s="13" t="s">
         <v>9</v>
@@ -3966,14 +4372,14 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
       <c r="D124" s="11">
         <v>123</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F124" s="15" t="s">
         <v>9</v>
@@ -3983,14 +4389,14 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="34"/>
       <c r="D125" s="11">
         <v>124</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>9</v>
@@ -4000,14 +4406,14 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
       <c r="D126" s="11">
         <v>125</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>9</v>
@@ -4017,14 +4423,14 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
       <c r="D127" s="11">
         <v>126</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>9</v>
@@ -4036,173 +4442,512 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D128" s="11">
         <v>127</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F128" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D129" s="11">
         <v>128</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D130" s="11">
         <v>129</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="F130" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D131" s="11">
         <v>130</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D132" s="11">
         <v>131</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F132" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D133" s="11">
         <v>132</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="F133" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D134" s="11">
         <v>133</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F134" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D135" s="11">
         <v>134</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136" s="11">
+        <v>135</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F136" s="22">
+        <v>1</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D137" s="11">
+        <v>136</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F137" s="22">
+        <v>1</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="31"/>
+      <c r="B138" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="11">
+        <v>137</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F138" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="31"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="11">
+        <v>138</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="11">
+        <v>139</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="31"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="11">
+        <v>140</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="31"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="11">
+        <v>141</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F142" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="11">
+        <v>142</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="31"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="11">
+        <v>143</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="31"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="11">
+        <v>144</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="31"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="11">
+        <v>145</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="31"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="11">
+        <v>146</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="31"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="11">
+        <v>147</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="31"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="11">
+        <v>148</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="31"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="11">
+        <v>149</v>
+      </c>
+      <c r="E150" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="31"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="11">
+        <v>150</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F151" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="31"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="11">
+        <v>151</v>
+      </c>
+      <c r="E152" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="31"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="11">
+        <v>152</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F153" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D154" s="29">
+        <v>153</v>
+      </c>
+      <c r="E154" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="48">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A9:A24"/>
     <mergeCell ref="A25:A40"/>
@@ -4213,28 +4958,26 @@
     <mergeCell ref="A81:A88"/>
     <mergeCell ref="A89:A96"/>
     <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B123:B127"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A111"/>
     <mergeCell ref="A119:A120"/>
     <mergeCell ref="A123:A127"/>
-    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B97:B98"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B9:B24"/>
     <mergeCell ref="B25:B40"/>
     <mergeCell ref="B41:B56"/>
     <mergeCell ref="B57:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="C9:C24"/>
     <mergeCell ref="C25:C40"/>
     <mergeCell ref="C41:C56"/>
@@ -4248,16 +4991,21 @@
     <mergeCell ref="C108:C109"/>
     <mergeCell ref="C110:C111"/>
     <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A138:A153"/>
+    <mergeCell ref="B138:B153"/>
+    <mergeCell ref="C138:C153"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="B123:B127"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4274,24 +5022,24 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6">
         <v>10</v>
@@ -4311,7 +5059,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -4331,7 +5079,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -4351,7 +5099,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -4371,7 +5119,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -4391,7 +5139,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -4416,7 +5164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4432,13 +5180,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4446,10 +5194,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4457,10 +5205,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4468,10 +5216,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4479,10 +5227,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4490,10 +5238,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4512,10 +5260,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4523,10 +5271,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4534,10 +5282,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4545,10 +5293,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4559,26 +5307,145 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4592,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4600,7 +5467,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4608,100 +5475,116 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>204</v>
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="1"/>
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config/project/board_120KW_auto/BoardConfig.xlsx
+++ b/config/project/board_120KW_auto/BoardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board_120KW_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{38661960-2EFF-4A56-B34E-94A1D23C2450}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F16B9962-51EA-4478-B9E6-EB8929882362}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10350" tabRatio="667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10350" tabRatio="667" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="266">
   <si>
     <t>组序号</t>
   </si>
@@ -640,18 +640,6 @@
     <t>spiadc</t>
   </si>
   <si>
-    <t>SPI_ADC0</t>
-  </si>
-  <si>
-    <t>SPI_ADC1</t>
-  </si>
-  <si>
-    <t>SPI_ADC2</t>
-  </si>
-  <si>
-    <t>SPI_ADC3</t>
-  </si>
-  <si>
     <t>SPIAD开关全开状态</t>
   </si>
   <si>
@@ -661,30 +649,6 @@
     <t>adc</t>
   </si>
   <si>
-    <t>ADC0_D0</t>
-  </si>
-  <si>
-    <t>ADC1_D0</t>
-  </si>
-  <si>
-    <t>ADC0_SE17</t>
-  </si>
-  <si>
-    <t>ADC0_SE18</t>
-  </si>
-  <si>
-    <t>ADC1_SE4</t>
-  </si>
-  <si>
-    <t>ADC1_SE5</t>
-  </si>
-  <si>
-    <t>ADC1_SE6</t>
-  </si>
-  <si>
-    <t>ADC1_SE7</t>
-  </si>
-  <si>
     <t>AD采样(ADC开关17-18打开)</t>
   </si>
   <si>
@@ -976,9 +940,6 @@
   </si>
   <si>
     <t>di_全关</t>
-  </si>
-  <si>
-    <t>请将1-16 di拨码开关 向上拨</t>
   </si>
   <si>
     <t>请将1-16 di拨码开关 向下拨</t>
@@ -1581,6 +1542,110 @@
   </si>
   <si>
     <t>AD采样(ADC开关17-18打开)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作提示1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作提示2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将1-16 di拨码开关 向上拨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意！注意！Attention please!! 不要插入J3 J5 J6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意！注意！Attention please!! 确保，确保，确保插入J3 J5 J6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000081D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_ADC0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_ADC1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_ADC2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_ADC3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC0_D0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_D0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC0_SE17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC0_SE18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_SE4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_SE5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_SE6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_SE7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉电解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉电解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请关闭电源，然后确认掉电解锁灯是否亮</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1713,7 +1778,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,20 +1866,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1831,6 +1914,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1840,12 +1932,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2116,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89:B96"/>
+    <sheetView topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2221,11 +2337,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="11">
@@ -2242,9 +2358,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="31"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="11">
         <v>5</v>
       </c>
@@ -2259,9 +2375,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="11">
         <v>6</v>
       </c>
@@ -2297,11 +2413,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="11">
@@ -2314,13 +2430,13 @@
         <v>9</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="11">
         <v>9</v>
       </c>
@@ -2331,13 +2447,13 @@
         <v>9</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="11">
         <v>10</v>
       </c>
@@ -2348,13 +2464,13 @@
         <v>9</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="11">
         <v>11</v>
       </c>
@@ -2365,13 +2481,13 @@
         <v>9</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="11">
         <v>12</v>
       </c>
@@ -2382,13 +2498,13 @@
         <v>9</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="11">
         <v>13</v>
       </c>
@@ -2399,13 +2515,13 @@
         <v>9</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="11">
         <v>14</v>
       </c>
@@ -2416,13 +2532,13 @@
         <v>9</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="11">
         <v>15</v>
       </c>
@@ -2433,13 +2549,13 @@
         <v>9</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="11">
         <v>16</v>
       </c>
@@ -2450,13 +2566,13 @@
         <v>9</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="11">
         <v>17</v>
       </c>
@@ -2467,13 +2583,13 @@
         <v>9</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="11">
         <v>18</v>
       </c>
@@ -2484,13 +2600,13 @@
         <v>9</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="11">
         <v>19</v>
       </c>
@@ -2501,13 +2617,13 @@
         <v>9</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="11">
         <v>20</v>
       </c>
@@ -2518,13 +2634,13 @@
         <v>9</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="11">
         <v>21</v>
       </c>
@@ -2535,13 +2651,13 @@
         <v>9</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="11">
         <v>22</v>
       </c>
@@ -2552,13 +2668,13 @@
         <v>9</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="11">
         <v>23</v>
       </c>
@@ -2569,15 +2685,15 @@
         <v>9</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="11">
@@ -2590,13 +2706,13 @@
         <v>9</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="11">
         <v>25</v>
       </c>
@@ -2611,9 +2727,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="11">
         <v>26</v>
       </c>
@@ -2624,13 +2740,13 @@
         <v>9</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="11">
         <v>27</v>
       </c>
@@ -2645,9 +2761,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="11">
         <v>28</v>
       </c>
@@ -2658,13 +2774,13 @@
         <v>9</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="11">
         <v>29</v>
       </c>
@@ -2679,9 +2795,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="11">
         <v>30</v>
       </c>
@@ -2692,13 +2808,13 @@
         <v>9</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="11">
         <v>31</v>
       </c>
@@ -2713,9 +2829,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="11">
         <v>32</v>
       </c>
@@ -2726,13 +2842,13 @@
         <v>9</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="11">
         <v>33</v>
       </c>
@@ -2747,9 +2863,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="11">
         <v>34</v>
       </c>
@@ -2760,13 +2876,13 @@
         <v>9</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="11">
         <v>35</v>
       </c>
@@ -2781,9 +2897,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="11">
         <v>36</v>
       </c>
@@ -2794,13 +2910,13 @@
         <v>9</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="11">
         <v>37</v>
       </c>
@@ -2815,9 +2931,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="11">
         <v>38</v>
       </c>
@@ -2828,13 +2944,13 @@
         <v>9</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="11">
         <v>39</v>
       </c>
@@ -2845,15 +2961,15 @@
         <v>9</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D41" s="11">
@@ -2870,9 +2986,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="11">
         <v>41</v>
       </c>
@@ -2887,9 +3003,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="11">
         <v>42</v>
       </c>
@@ -2904,9 +3020,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="11">
         <v>43</v>
       </c>
@@ -2921,9 +3037,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="11">
         <v>44</v>
       </c>
@@ -2938,9 +3054,9 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="11">
         <v>45</v>
       </c>
@@ -2955,9 +3071,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="11">
         <v>46</v>
       </c>
@@ -2972,9 +3088,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="11">
         <v>47</v>
       </c>
@@ -2989,9 +3105,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="11">
         <v>48</v>
       </c>
@@ -3006,9 +3122,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="11">
         <v>49</v>
       </c>
@@ -3023,9 +3139,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="11">
         <v>50</v>
       </c>
@@ -3040,9 +3156,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="11">
         <v>51</v>
       </c>
@@ -3057,9 +3173,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="11">
         <v>52</v>
       </c>
@@ -3074,9 +3190,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="11">
         <v>53</v>
       </c>
@@ -3091,9 +3207,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="11">
         <v>54</v>
       </c>
@@ -3108,9 +3224,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="11">
         <v>55</v>
       </c>
@@ -3125,11 +3241,11 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31" t="s">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="11">
@@ -3146,9 +3262,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="11">
         <v>57</v>
       </c>
@@ -3163,9 +3279,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
       <c r="D59" s="11">
         <v>58</v>
       </c>
@@ -3180,9 +3296,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="11">
         <v>59</v>
       </c>
@@ -3197,9 +3313,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="11">
         <v>60</v>
       </c>
@@ -3214,9 +3330,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="11">
         <v>61</v>
       </c>
@@ -3231,9 +3347,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="11">
         <v>62</v>
       </c>
@@ -3248,9 +3364,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="11">
         <v>63</v>
       </c>
@@ -3265,9 +3381,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="11">
         <v>64</v>
       </c>
@@ -3282,9 +3398,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="11">
         <v>65</v>
       </c>
@@ -3299,9 +3415,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="11">
         <v>66</v>
       </c>
@@ -3316,9 +3432,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="11">
         <v>67</v>
       </c>
@@ -3333,9 +3449,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="11">
         <v>68</v>
       </c>
@@ -3350,9 +3466,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="11">
         <v>69</v>
       </c>
@@ -3367,9 +3483,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
       <c r="D71" s="11">
         <v>70</v>
       </c>
@@ -3384,9 +3500,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
       <c r="D72" s="11">
         <v>71</v>
       </c>
@@ -3401,18 +3517,18 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31" t="s">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="41" t="s">
         <v>79</v>
       </c>
       <c r="D73" s="11">
         <v>72</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>9</v>
@@ -3422,14 +3538,14 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="11">
         <v>73</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>9</v>
@@ -3439,14 +3555,14 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="11">
         <v>74</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>9</v>
@@ -3456,14 +3572,14 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="11">
         <v>75</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>9</v>
@@ -3473,18 +3589,18 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="31" t="s">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="41" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="11">
         <v>76</v>
       </c>
-      <c r="E77" s="15" t="s">
-        <v>80</v>
+      <c r="E77" s="35" t="s">
+        <v>251</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>9</v>
@@ -3494,14 +3610,14 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="11">
         <v>77</v>
       </c>
-      <c r="E78" s="15" t="s">
-        <v>81</v>
+      <c r="E78" s="35" t="s">
+        <v>252</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>9</v>
@@ -3511,14 +3627,14 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="11">
         <v>78</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>82</v>
+      <c r="E79" s="35" t="s">
+        <v>253</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>9</v>
@@ -3528,14 +3644,14 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="11">
         <v>79</v>
       </c>
-      <c r="E80" s="15" t="s">
-        <v>83</v>
+      <c r="E80" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>9</v>
@@ -3545,18 +3661,18 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>86</v>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="D81" s="11">
         <v>80</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>9</v>
@@ -3566,14 +3682,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="11">
         <v>81</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>9</v>
@@ -3583,14 +3699,14 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="11">
         <v>82</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>9</v>
@@ -3600,14 +3716,14 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="11">
         <v>83</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>9</v>
@@ -3617,14 +3733,14 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="11">
         <v>84</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>9</v>
@@ -3634,14 +3750,14 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="11">
         <v>85</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>9</v>
@@ -3651,14 +3767,14 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="11">
         <v>86</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>9</v>
@@ -3668,14 +3784,14 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="11">
         <v>87</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>9</v>
@@ -3685,18 +3801,18 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>86</v>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="D89" s="11">
         <v>88</v>
       </c>
-      <c r="E89" s="15" t="s">
-        <v>87</v>
+      <c r="E89" s="37" t="s">
+        <v>255</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>9</v>
@@ -3706,14 +3822,14 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="11">
         <v>89</v>
       </c>
-      <c r="E90" s="15" t="s">
-        <v>88</v>
+      <c r="E90" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>9</v>
@@ -3723,48 +3839,48 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="11">
         <v>90</v>
       </c>
-      <c r="E91" s="15" t="s">
-        <v>89</v>
+      <c r="E91" s="37" t="s">
+        <v>257</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G91" s="15">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="11">
         <v>91</v>
       </c>
-      <c r="E92" s="15" t="s">
-        <v>90</v>
+      <c r="E92" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="15">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="11">
         <v>92</v>
       </c>
-      <c r="E93" s="15" t="s">
-        <v>91</v>
+      <c r="E93" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>9</v>
@@ -3774,14 +3890,14 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="11">
         <v>93</v>
       </c>
-      <c r="E94" s="15" t="s">
-        <v>92</v>
+      <c r="E94" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>9</v>
@@ -3791,14 +3907,14 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="11">
         <v>94</v>
       </c>
-      <c r="E95" s="15" t="s">
-        <v>93</v>
+      <c r="E95" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>9</v>
@@ -3808,14 +3924,14 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
       <c r="D96" s="11">
         <v>95</v>
       </c>
-      <c r="E96" s="15" t="s">
-        <v>94</v>
+      <c r="E96" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>9</v>
@@ -3825,85 +3941,85 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="31" t="s">
+      <c r="A97" s="41"/>
+      <c r="B97" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="11">
         <v>96</v>
       </c>
-      <c r="E97" s="15" t="s">
-        <v>97</v>
+      <c r="E97" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="F97" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
       <c r="D98" s="11">
         <v>97</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C99" s="31" t="s">
+      <c r="A99" s="41"/>
+      <c r="B99" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="11">
         <v>98</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
       <c r="D100" s="11">
         <v>99</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>8</v>
@@ -3912,40 +4028,40 @@
         <v>100</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D102" s="11">
         <v>101</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="14" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>8</v>
@@ -3954,19 +4070,19 @@
         <v>102</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>8</v>
@@ -3975,13 +4091,13 @@
         <v>103</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3990,7 +4106,7 @@
         <v>10</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D105" s="11">
         <v>104</v>
@@ -4011,7 +4127,7 @@
         <v>13</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D106" s="11">
         <v>105</v>
@@ -4029,16 +4145,16 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="14" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D107" s="11">
         <v>106</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F107" s="13" t="s">
         <v>9</v>
@@ -4048,56 +4164,56 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="39" t="s">
-        <v>110</v>
+      <c r="A108" s="45"/>
+      <c r="B108" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" s="45" t="s">
+        <v>98</v>
       </c>
       <c r="D108" s="11">
         <v>107</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
+      <c r="A109" s="46"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
       <c r="D109" s="11">
         <v>108</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
-      <c r="B110" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" s="30">
+      <c r="A110" s="40"/>
+      <c r="B110" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="40">
         <v>485</v>
       </c>
       <c r="D110" s="11">
         <v>109</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>9</v>
@@ -4107,14 +4223,14 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="30"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="30"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="40"/>
       <c r="D111" s="11">
         <v>110</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>9</v>
@@ -4126,37 +4242,37 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D112" s="11">
         <v>111</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D113" s="11">
         <v>112</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F113" s="13" t="s">
         <v>9</v>
@@ -4168,16 +4284,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D114" s="11">
         <v>113</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F114" s="13" t="s">
         <v>9</v>
@@ -4189,16 +4305,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D115" s="11">
         <v>114</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>9</v>
@@ -4210,7 +4326,7 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>8</v>
@@ -4219,7 +4335,7 @@
         <v>115</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F116" s="13" t="s">
         <v>9</v>
@@ -4231,16 +4347,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D117" s="11">
         <v>116</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>9</v>
@@ -4252,7 +4368,7 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>8</v>
@@ -4261,7 +4377,7 @@
         <v>117</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>9</v>
@@ -4271,18 +4387,18 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
-      <c r="B119" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" s="31" t="s">
-        <v>106</v>
+      <c r="A119" s="45"/>
+      <c r="B119" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="D119" s="11">
         <v>118</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>9</v>
@@ -4292,14 +4408,14 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="41"/>
-      <c r="C120" s="30"/>
+      <c r="A120" s="46"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="40"/>
       <c r="D120" s="11">
         <v>119</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F120" s="13" t="s">
         <v>9</v>
@@ -4311,58 +4427,58 @@
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D121" s="18">
         <v>120</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D122" s="11">
         <v>121</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="33"/>
-      <c r="B123" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>122</v>
+      <c r="A123" s="47"/>
+      <c r="B123" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>110</v>
       </c>
       <c r="D123" s="11">
         <v>122</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F123" s="13" t="s">
         <v>9</v>
@@ -4372,14 +4488,14 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
       <c r="D124" s="11">
         <v>123</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F124" s="15" t="s">
         <v>9</v>
@@ -4389,14 +4505,14 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="34"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
+      <c r="A125" s="48"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
       <c r="D125" s="11">
         <v>124</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>9</v>
@@ -4406,14 +4522,14 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
+      <c r="A126" s="48"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
       <c r="D126" s="11">
         <v>125</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>9</v>
@@ -4423,14 +4539,14 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
+      <c r="A127" s="49"/>
+      <c r="B127" s="49"/>
+      <c r="C127" s="49"/>
       <c r="D127" s="11">
         <v>126</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>9</v>
@@ -4442,219 +4558,219 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D128" s="11">
         <v>127</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F128" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D129" s="11">
         <v>128</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D130" s="11">
         <v>129</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F130" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D131" s="11">
         <v>130</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D132" s="11">
         <v>131</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F132" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D133" s="11">
         <v>132</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F133" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D134" s="11">
         <v>133</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F134" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D135" s="11">
         <v>134</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="22" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D136" s="11">
         <v>135</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F136" s="22">
         <v>1</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="22" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D137" s="11">
         <v>136</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F137" s="22">
         <v>1</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="C138" s="31" t="s">
+      <c r="A138" s="41"/>
+      <c r="B138" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="11">
@@ -4671,9 +4787,9 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
+      <c r="A139" s="41"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
       <c r="D139" s="11">
         <v>138</v>
       </c>
@@ -4684,13 +4800,13 @@
         <v>9</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
+      <c r="A140" s="41"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
       <c r="D140" s="11">
         <v>139</v>
       </c>
@@ -4705,9 +4821,9 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
+      <c r="A141" s="41"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
       <c r="D141" s="11">
         <v>140</v>
       </c>
@@ -4718,13 +4834,13 @@
         <v>9</v>
       </c>
       <c r="G141" s="26" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
+      <c r="A142" s="41"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="41"/>
       <c r="D142" s="11">
         <v>141</v>
       </c>
@@ -4739,9 +4855,9 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
+      <c r="A143" s="41"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
       <c r="D143" s="11">
         <v>142</v>
       </c>
@@ -4752,13 +4868,13 @@
         <v>9</v>
       </c>
       <c r="G143" s="26" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
+      <c r="A144" s="41"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="41"/>
       <c r="D144" s="11">
         <v>143</v>
       </c>
@@ -4773,9 +4889,9 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
+      <c r="A145" s="41"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="41"/>
       <c r="D145" s="11">
         <v>144</v>
       </c>
@@ -4786,13 +4902,13 @@
         <v>9</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="31"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
+      <c r="A146" s="41"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
       <c r="D146" s="11">
         <v>145</v>
       </c>
@@ -4807,9 +4923,9 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
       <c r="D147" s="11">
         <v>146</v>
       </c>
@@ -4820,13 +4936,13 @@
         <v>9</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="41"/>
       <c r="D148" s="11">
         <v>147</v>
       </c>
@@ -4841,9 +4957,9 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="41"/>
       <c r="D149" s="11">
         <v>148</v>
       </c>
@@ -4854,13 +4970,13 @@
         <v>9</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="31"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
       <c r="D150" s="11">
         <v>149</v>
       </c>
@@ -4875,9 +4991,9 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="41"/>
       <c r="D151" s="11">
         <v>150</v>
       </c>
@@ -4888,13 +5004,13 @@
         <v>9</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
+      <c r="A152" s="41"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="41"/>
       <c r="D152" s="11">
         <v>151</v>
       </c>
@@ -4909,9 +5025,9 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
+      <c r="A153" s="41"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
       <c r="D153" s="11">
         <v>152</v>
       </c>
@@ -4928,41 +5044,104 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="28" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D154" s="29">
         <v>153</v>
       </c>
       <c r="E154" s="27" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F154" s="27" t="s">
         <v>9</v>
       </c>
       <c r="G154" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D155" s="33">
+        <v>154</v>
+      </c>
+      <c r="E155" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F155" s="30">
+        <v>0</v>
+      </c>
+      <c r="G155" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D156" s="33">
+        <v>155</v>
+      </c>
+      <c r="E156" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F156" s="30">
+        <v>0</v>
+      </c>
+      <c r="G156" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C157" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D157" s="29">
+        <v>156</v>
+      </c>
+      <c r="E157" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="F157" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="38" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A9:A24"/>
-    <mergeCell ref="A25:A40"/>
-    <mergeCell ref="A41:A56"/>
-    <mergeCell ref="A57:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A138:A153"/>
+    <mergeCell ref="B138:B153"/>
+    <mergeCell ref="C138:C153"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C25:C40"/>
+    <mergeCell ref="C41:C56"/>
+    <mergeCell ref="C57:C72"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
     <mergeCell ref="B99:B100"/>
     <mergeCell ref="B108:B109"/>
     <mergeCell ref="B110:B111"/>
@@ -4979,25 +5158,29 @@
     <mergeCell ref="B41:B56"/>
     <mergeCell ref="B57:B72"/>
     <mergeCell ref="C9:C24"/>
-    <mergeCell ref="C25:C40"/>
-    <mergeCell ref="C41:C56"/>
-    <mergeCell ref="C57:C72"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="A138:A153"/>
-    <mergeCell ref="B138:B153"/>
-    <mergeCell ref="C138:C153"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A25:A40"/>
+    <mergeCell ref="A41:A56"/>
+    <mergeCell ref="A57:A72"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89:E90">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -5022,24 +5205,24 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6">
         <v>10</v>
@@ -5059,7 +5242,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -5079,7 +5262,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -5099,7 +5282,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -5119,7 +5302,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -5139,7 +5322,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -5165,10 +5348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5180,13 +5363,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5194,10 +5377,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5208,7 +5391,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5219,7 +5402,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5227,10 +5410,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5238,10 +5421,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5249,10 +5432,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5260,10 +5443,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5271,10 +5454,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5282,10 +5465,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5293,16 +5476,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5310,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5324,114 +5540,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5459,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5467,7 +5683,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5475,15 +5691,15 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5491,15 +5707,15 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5507,82 +5723,82 @@
         <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1"/>
     </row>

--- a/config/project/board_120KW_auto/BoardConfig.xlsx
+++ b/config/project/board_120KW_auto/BoardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board_120KW_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F16B9962-51EA-4478-B9E6-EB8929882362}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9DB47CBD-5F1D-4B92-A0D2-0457D3B2CFD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10350" tabRatio="667" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10350" tabRatio="667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -1529,10 +1529,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0x00000400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>IODI防接反(打开防接反)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1647,6 +1643,10 @@
   <si>
     <t>请关闭电源，然后确认掉电解锁灯是否亮</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000409</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3528,7 +3528,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>9</v>
@@ -3545,7 +3545,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>9</v>
@@ -3562,7 +3562,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>9</v>
@@ -3579,7 +3579,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>9</v>
@@ -3600,7 +3600,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>9</v>
@@ -3617,7 +3617,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>9</v>
@@ -3634,7 +3634,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>9</v>
@@ -3651,7 +3651,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>9</v>
@@ -3689,7 +3689,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>9</v>
@@ -3706,7 +3706,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>9</v>
@@ -3723,7 +3723,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>9</v>
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>9</v>
@@ -3757,7 +3757,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>9</v>
@@ -3774,7 +3774,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>9</v>
@@ -3791,7 +3791,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>9</v>
@@ -3803,7 +3803,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C89" s="42" t="s">
         <v>82</v>
@@ -3812,7 +3812,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>9</v>
@@ -3829,7 +3829,7 @@
         <v>89</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>9</v>
@@ -3846,7 +3846,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>9</v>
@@ -3863,7 +3863,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>9</v>
@@ -3880,7 +3880,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>9</v>
@@ -3897,7 +3897,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>9</v>
@@ -3914,7 +3914,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>9</v>
@@ -3931,7 +3931,7 @@
         <v>95</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>9</v>
@@ -3952,7 +3952,7 @@
         <v>96</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F97" s="13" t="s">
         <v>9</v>
@@ -3981,7 +3981,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C99" s="41" t="s">
         <v>11</v>
@@ -5064,16 +5064,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D155" s="33">
         <v>154</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F155" s="30">
         <v>0</v>
@@ -5084,16 +5084,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D156" s="33">
         <v>155</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F156" s="30">
         <v>0</v>
@@ -5105,7 +5105,7 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>236</v>
@@ -5114,7 +5114,7 @@
         <v>156</v>
       </c>
       <c r="E157" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F157" s="38" t="s">
         <v>9</v>
@@ -5350,7 +5350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5380,7 +5380,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5498,10 +5498,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5509,10 +5509,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5526,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5610,13 +5610,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>193</v>
@@ -5624,10 +5624,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>194</v>
@@ -5641,7 +5641,7 @@
         <v>237</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>194</v>
